--- a/WinFormsApp1/WinFormsApp1/bin/Release/net5.0-windows/DB/Schedule_template.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Release/net5.0-windows/DB/Schedule_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26202"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9520F589-B28D-47E7-BEED-C8FA1EB29463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26228"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70AAB67-0625-4183-9148-F2C987E25C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19020" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Weekly schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Time / period</t>
+  </si>
   <si>
     <t>Sunday</t>
   </si>
@@ -55,13 +58,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -69,13 +81,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -107,14 +142,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC65911"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -123,6 +152,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -132,81 +176,322 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -229,44 +514,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -294,31 +579,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -346,23 +614,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,227 +625,485 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="7" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="93.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="93.75" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1">
+      <c r="A2" s="22">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1">
+      <c r="A3" s="22">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="93.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="36" customHeight="1">
+      <c r="A4" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="93.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1">
+      <c r="A5" s="22">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="93.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="A6" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1">
+      <c r="A7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1">
+      <c r="A8" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1">
+      <c r="A9" s="22">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="36" customHeight="1">
+      <c r="A10" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="36" customHeight="1">
+      <c r="A11" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" customHeight="1">
+      <c r="A12" s="22">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="36" customHeight="1">
+      <c r="A13" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="36" customHeight="1">
+      <c r="A14" s="22">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="36" customHeight="1">
+      <c r="A15" s="22">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="36" customHeight="1">
+      <c r="A16" s="22">
+        <v>0.875</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
+  <pageSetup scale="97" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/WinFormsApp1/WinFormsApp1/bin/Release/net5.0-windows/DB/Schedule_template.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Release/net5.0-windows/DB/Schedule_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26312"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70AAB67-0625-4183-9148-F2C987E25C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC32431-28A5-4BD9-88ED-46DB012A9247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="19020" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Release/net5.0-windows/DB/Schedule_template.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Release/net5.0-windows/DB/Schedule_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26312"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC32431-28A5-4BD9-88ED-46DB012A9247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B444B4D5-6069-4869-A776-7209C9F49C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="19020" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Time / period</t>
   </si>
@@ -52,6 +52,51 @@
   </si>
   <si>
     <t>Saturday</t>
+  </si>
+  <si>
+    <t>7AM</t>
+  </si>
+  <si>
+    <t>8AM</t>
+  </si>
+  <si>
+    <t>9AM</t>
+  </si>
+  <si>
+    <t>10AM</t>
+  </si>
+  <si>
+    <t>11AM</t>
+  </si>
+  <si>
+    <t>12PM</t>
+  </si>
+  <si>
+    <t>1PM</t>
+  </si>
+  <si>
+    <t>2PM</t>
+  </si>
+  <si>
+    <t>3PM</t>
+  </si>
+  <si>
+    <t>4PM</t>
+  </si>
+  <si>
+    <t>5PM</t>
+  </si>
+  <si>
+    <t>6PM</t>
+  </si>
+  <si>
+    <t>7PM</t>
+  </si>
+  <si>
+    <t>8PM</t>
+  </si>
+  <si>
+    <t>9PM</t>
   </si>
 </sst>
 </file>
@@ -880,8 +925,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="A1:H16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -917,8 +962,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="22">
-        <v>0.29166666666666669</v>
+      <c r="A2" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -929,8 +974,8 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1">
-      <c r="A3" s="22">
-        <v>0.33333333333333331</v>
+      <c r="A3" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -941,8 +986,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1">
-      <c r="A4" s="22">
-        <v>0.375</v>
+      <c r="A4" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -953,8 +998,8 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1">
-      <c r="A5" s="22">
-        <v>0.41666666666666669</v>
+      <c r="A5" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -965,8 +1010,8 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="36" customHeight="1">
-      <c r="A6" s="22">
-        <v>0.45833333333333331</v>
+      <c r="A6" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -977,8 +1022,8 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1">
-      <c r="A7" s="22">
-        <v>0.5</v>
+      <c r="A7" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -989,8 +1034,8 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1">
-      <c r="A8" s="22">
-        <v>0.54166666666666663</v>
+      <c r="A8" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -1001,8 +1046,8 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1">
-      <c r="A9" s="22">
-        <v>0.58333333333333337</v>
+      <c r="A9" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -1013,8 +1058,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1">
-      <c r="A10" s="22">
-        <v>0.625</v>
+      <c r="A10" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -1025,8 +1070,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="36" customHeight="1">
-      <c r="A11" s="22">
-        <v>0.66666666666666663</v>
+      <c r="A11" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1037,8 +1082,8 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1">
-      <c r="A12" s="22">
-        <v>0.70833333333333337</v>
+      <c r="A12" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1049,8 +1094,8 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="36" customHeight="1">
-      <c r="A13" s="22">
-        <v>0.75</v>
+      <c r="A13" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1061,8 +1106,8 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1">
-      <c r="A14" s="22">
-        <v>0.79166666666666663</v>
+      <c r="A14" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -1073,8 +1118,8 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1">
-      <c r="A15" s="22">
-        <v>0.83333333333333337</v>
+      <c r="A15" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1085,8 +1130,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1">
-      <c r="A16" s="22">
-        <v>0.875</v>
+      <c r="A16" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Release/net5.0-windows/DB/Schedule_template.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Release/net5.0-windows/DB/Schedule_template.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26312"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B444B4D5-6069-4869-A776-7209C9F49C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F18439C-3D1B-4D9F-A2AC-069806AFD5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19020" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19020" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Time / period</t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>9PM</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -925,7 +929,7 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1151,4 +1155,24 @@
   <pageSetup scale="97" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B050A178-1FFB-4C05-978F-81338794AD70}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>